--- a/SCH-STH/Impact assessments/Benin/bj_sch_sth_impact_4_urine_filtration_202204.xlsx
+++ b/SCH-STH/Impact assessments/Benin/bj_sch_sth_impact_4_urine_filtration_202204.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\BENIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC5B32C-BF10-4612-888D-9479B2AA6CA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1843118-B333-4A28-A82F-8191A8A49BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="305">
   <si>
     <t>type</t>
   </si>
@@ -133,18 +133,12 @@
     <t>SH egp 10 ml</t>
   </si>
   <si>
-    <t>Nombre d'œufs par 10 ml</t>
-  </si>
-  <si>
     <t>k_sch_man</t>
   </si>
   <si>
     <t>Schistosoma mansoni (eggs)</t>
   </si>
   <si>
-    <t>Schistosoma mansoni (oeufs)</t>
-  </si>
-  <si>
     <t>u_remarks</t>
   </si>
   <si>
@@ -409,18 +403,9 @@
     <t>SEMERE 1</t>
   </si>
   <si>
-    <t>SEMERE 13</t>
-  </si>
-  <si>
     <t>SEMERE 2</t>
   </si>
   <si>
-    <t>SEMERE 6</t>
-  </si>
-  <si>
-    <t>SEMERE 7</t>
-  </si>
-  <si>
     <t>SINGRE</t>
   </si>
   <si>
@@ -487,15 +472,9 @@
     <t>EPP AHOMEY HOUNME/A</t>
   </si>
   <si>
-    <t>EPP AHOMEY LOKPO/B</t>
-  </si>
-  <si>
     <t>EPP AHOMEY-GBEKPA</t>
   </si>
   <si>
-    <t>EPP AHOMEY-GBLON/B</t>
-  </si>
-  <si>
     <t>EPP AKOKPONAWA</t>
   </si>
   <si>
@@ -601,15 +580,9 @@
     <t>EPP BEMBE-4</t>
   </si>
   <si>
-    <t>EPP BEREKE-GANDO</t>
-  </si>
-  <si>
     <t>EPP BEROUBOUAY/A</t>
   </si>
   <si>
-    <t>EPP BESSASSI/B</t>
-  </si>
-  <si>
     <t>EPP BOKOSSI</t>
   </si>
   <si>
@@ -625,9 +598,6 @@
     <t>EPP BORO</t>
   </si>
   <si>
-    <t>EPP BOUCA/B</t>
-  </si>
-  <si>
     <t>EPP BOURANDOU</t>
   </si>
   <si>
@@ -673,18 +643,12 @@
     <t>EPP DOMPAGO/B (EX-BADJOUDE/B)</t>
   </si>
   <si>
-    <t>EPP DORO-PETABEMPE</t>
-  </si>
-  <si>
     <t>EPP FOUKILGA</t>
   </si>
   <si>
     <t>EPP GANDO BAKA</t>
   </si>
   <si>
-    <t>EPP GANDO-BOROU</t>
-  </si>
-  <si>
     <t>EPP GANVIE 1/A</t>
   </si>
   <si>
@@ -706,9 +670,6 @@
     <t>EPP GBEKO/A</t>
   </si>
   <si>
-    <t>EPP GBEROU-GBASSI</t>
-  </si>
-  <si>
     <t>EPP GBEROUKPANE</t>
   </si>
   <si>
@@ -721,9 +682,6 @@
     <t>EPP GNEL GNABOUCA</t>
   </si>
   <si>
-    <t>EPP GNEL KELE</t>
-  </si>
-  <si>
     <t>EPP GNEL-DOGARI</t>
   </si>
   <si>
@@ -739,12 +697,6 @@
     <t>EPP GORO-GAH</t>
   </si>
   <si>
-    <t>EPP GOUNOU-BAKE</t>
-  </si>
-  <si>
-    <t>EPP GUERA N'KALI/A</t>
-  </si>
-  <si>
     <t>EPP HETIN AGLAHOUNSA (EX HETIN AGLAHOUNSA/A)</t>
   </si>
   <si>
@@ -772,9 +724,6 @@
     <t>EPP KAKATENIN</t>
   </si>
   <si>
-    <t>EPP KALALE QUARTIER/A</t>
-  </si>
-  <si>
     <t>EPP KANKOULGA</t>
   </si>
   <si>
@@ -805,15 +754,9 @@
     <t>EPP KOMDE/B</t>
   </si>
   <si>
-    <t>EPP KONOU</t>
-  </si>
-  <si>
     <t>EPP KORI</t>
   </si>
   <si>
-    <t>EPP KORO</t>
-  </si>
-  <si>
     <t>EPP KPAFE</t>
   </si>
   <si>
@@ -838,12 +781,6 @@
     <t>EPP MADJATOM/A</t>
   </si>
   <si>
-    <t>EPP MANI</t>
-  </si>
-  <si>
-    <t>EPP MANI GANDO (EX BAFA)</t>
-  </si>
-  <si>
     <t>EPP MAREGNAMAROU</t>
   </si>
   <si>
@@ -868,9 +805,6 @@
     <t>EPP PROUKAKOU BAROU</t>
   </si>
   <si>
-    <t>EPP SAFILKO</t>
-  </si>
-  <si>
     <t>EPP SAI LAGARE/A (EX ZOUNGUE/B)</t>
   </si>
   <si>
@@ -889,9 +823,6 @@
     <t>EPP SOASSARAROU</t>
   </si>
   <si>
-    <t>EPP SO-AVA CENTRE/A</t>
-  </si>
-  <si>
     <t>EPP SONAGOUDA</t>
   </si>
   <si>
@@ -901,15 +832,9 @@
     <t>EPP SO-TCHANHOUE QUARTIER/B</t>
   </si>
   <si>
-    <t>EPP SOWAWOLOU/B</t>
-  </si>
-  <si>
     <t>EPP SO-ZOUNKO/A</t>
   </si>
   <si>
-    <t>EPP TCHAOUROU CENTRE/C</t>
-  </si>
-  <si>
     <t>EPP TCHATCHOU CENTRE/A</t>
   </si>
   <si>
@@ -946,9 +871,6 @@
     <t>MON AVENIR/B</t>
   </si>
   <si>
-    <t>SAINTE THERESE DE L'ENFANT JESUS</t>
-  </si>
-  <si>
     <t>SALEM</t>
   </si>
   <si>
@@ -977,6 +899,54 @@
   </si>
   <si>
     <t>Veuillez rentrer votre code sur 2 chiffres</t>
+  </si>
+  <si>
+    <t>Exemple: 123-01. Il s'agit du code de l'école suivi d'un tiret puis du numéro d'ordre du participant sur deux chiffres.</t>
+  </si>
+  <si>
+    <t>Veuillez entrer le code du participant. Exemple 123-01</t>
+  </si>
+  <si>
+    <t>EPP BOKE</t>
+  </si>
+  <si>
+    <t>EPP DANTCHA</t>
+  </si>
+  <si>
+    <t>EPP DOGODO/B</t>
+  </si>
+  <si>
+    <t>EPP GANGO</t>
+  </si>
+  <si>
+    <t>EPP GNEL BABI</t>
+  </si>
+  <si>
+    <t>EPP GNEL KIAGOU</t>
+  </si>
+  <si>
+    <t>EPP GUESSOU SUD/A</t>
+  </si>
+  <si>
+    <t>EPP KOUREL</t>
+  </si>
+  <si>
+    <t>EPP MAKARA</t>
+  </si>
+  <si>
+    <t>EPP SISSIGOUROU</t>
+  </si>
+  <si>
+    <t>EPP SOBOUROU-SON</t>
+  </si>
+  <si>
+    <t>EPP TCHAOUROU CENTRE/B</t>
+  </si>
+  <si>
+    <t>Nombre d’œufs de Schistosoma haematobium par 10 ml</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs de Schistosoma mansoni</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1326,6 +1296,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1613,10 +1586,10 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1692,24 +1665,24 @@
         <v>15</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="I2" s="39"/>
       <c r="J2" s="44" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -1733,7 +1706,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="34"/>
@@ -1756,11 +1729,11 @@
         <v>21</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="34"/>
@@ -1774,7 +1747,7 @@
       </c>
       <c r="N4" s="34"/>
       <c r="O4" s="56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="26" customFormat="1">
@@ -1785,11 +1758,11 @@
         <v>22</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="34"/>
@@ -1803,7 +1776,7 @@
       </c>
       <c r="N5" s="34"/>
       <c r="O5" s="56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="26" customFormat="1">
@@ -1811,14 +1784,14 @@
         <v>17</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="34"/>
@@ -1832,7 +1805,7 @@
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="28" customFormat="1" ht="46.8">
@@ -1840,24 +1813,28 @@
         <v>23</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="47"/>
+        <v>58</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>289</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="47"/>
+        <v>56</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>290</v>
+      </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8" t="s">
@@ -1897,7 +1874,7 @@
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" s="30" customFormat="1">
+    <row r="9" spans="1:15" s="30" customFormat="1" ht="31.2">
       <c r="A9" s="40" t="s">
         <v>24</v>
       </c>
@@ -1909,7 +1886,7 @@
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="44" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="48"/>
@@ -1929,16 +1906,16 @@
         <v>24</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>35</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>36</v>
+      <c r="E10" s="62" t="s">
+        <v>304</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="49"/>
@@ -1956,16 +1933,16 @@
         <v>23</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="50"/>
@@ -1980,10 +1957,10 @@
     </row>
     <row r="12" spans="1:15" s="27" customFormat="1">
       <c r="A12" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>20</v>
@@ -2005,10 +1982,10 @@
     </row>
     <row r="13" spans="1:15" s="27" customFormat="1">
       <c r="A13" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>20</v>
@@ -2053,11 +2030,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I408"/>
+  <dimension ref="A1:I387"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:H387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2071,7 +2048,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -2083,16 +2060,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I1" s="18"/>
     </row>
@@ -2129,30 +2106,30 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2163,19 +2140,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="18"/>
@@ -2183,19 +2160,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="18"/>
@@ -2203,19 +2180,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -2223,19 +2200,19 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="18"/>
@@ -2243,19 +2220,19 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="18"/>
@@ -2263,19 +2240,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -2283,19 +2260,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="60"/>
@@ -2303,19 +2280,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="60"/>
@@ -2323,19 +2300,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -2343,19 +2320,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H17" s="60"/>
     </row>
@@ -2365,832 +2342,832 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
         <v>86</v>
@@ -3198,203 +3175,203 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F73" t="s">
-        <v>74</v>
+        <v>133</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74" t="s">
-        <v>80</v>
+        <v>134</v>
+      </c>
+      <c r="G74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G75" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G76" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="C77" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G77" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G78" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G79" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G80" t="s">
         <v>112</v>
@@ -3402,585 +3379,585 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G81" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G82" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G83" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G84" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G85" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G86" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G87" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G88" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G89" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G90" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G91" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G92" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G93" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G94" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G95" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G96" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G97" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G98" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G99" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G100" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G101" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G102" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G103" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G104" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G105" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G106" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G108" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G109" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G110" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G111" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G112" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G113" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>176</v>
       </c>
       <c r="G114" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>177</v>
@@ -3992,12 +3969,12 @@
         <v>177</v>
       </c>
       <c r="G115" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>178</v>
@@ -4009,531 +3986,531 @@
         <v>178</v>
       </c>
       <c r="G116" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>179</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G117" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G118" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="G119" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G120" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G121" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G122" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G123" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G124" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G125" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G126" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G127" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G128" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G129" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>196</v>
+        <v>292</v>
       </c>
       <c r="G130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G131" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G132" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G133" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G134" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G135" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G136" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G137" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G138" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G139" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="G140" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G141" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G142" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G143" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="G144" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G145" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G146" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G147" t="s">
         <v>105</v>
@@ -4541,322 +4518,322 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G148" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G149" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G150" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G151" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G152" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G153" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G154" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="G155" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G156" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="G157" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G158" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G159" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G160" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G161" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G162" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="G163" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="31.2">
       <c r="A164" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G164" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G165" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G166" t="s">
         <v>110</v>
@@ -4864,16 +4841,16 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G167" t="s">
         <v>111</v>
@@ -4881,16 +4858,16 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G168" t="s">
         <v>111</v>
@@ -4898,4065 +4875,3708 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G169" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G170" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="31.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G171" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G172" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G173" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G174" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G175" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G176" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G177" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G178" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G179" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G180" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G181" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G182" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G183" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="G184" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G185" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G186" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G187" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G188" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G189" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G190" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G191" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G192" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="G193" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G194" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G195" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="G196" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="G197" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="G198" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G199" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="G200" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="G201" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G202" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G203" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="G204" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="G205" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G206" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G207" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G208" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="G209" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="G210" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="G211" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G212" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G213" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="G214" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G215" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="G216" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="G217" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G218" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G219" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G220" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="G221" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G222" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="G223" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G224" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="G225" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G226" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="G227" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G228" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="G229" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" t="s">
-        <v>137</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G230" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>137</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G231" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="B231" s="4">
+        <v>101</v>
+      </c>
+      <c r="C231" s="4">
+        <v>101</v>
+      </c>
+      <c r="D231" s="4">
+        <v>101</v>
+      </c>
+      <c r="H231" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>137</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G232" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="B232" s="4">
+        <v>102</v>
+      </c>
+      <c r="C232" s="4">
+        <v>102</v>
+      </c>
+      <c r="D232" s="4">
+        <v>102</v>
+      </c>
+      <c r="H232" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>137</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D233" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G233" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="B233" s="4">
+        <v>103</v>
+      </c>
+      <c r="C233" s="4">
+        <v>103</v>
+      </c>
+      <c r="D233" s="4">
+        <v>103</v>
+      </c>
+      <c r="H233" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>137</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G234" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="B234" s="4">
+        <v>104</v>
+      </c>
+      <c r="C234" s="4">
+        <v>104</v>
+      </c>
+      <c r="D234" s="4">
+        <v>104</v>
+      </c>
+      <c r="H234" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>137</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G235" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="B235" s="4">
+        <v>105</v>
+      </c>
+      <c r="C235" s="4">
+        <v>105</v>
+      </c>
+      <c r="D235" s="4">
+        <v>105</v>
+      </c>
+      <c r="H235" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>137</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G236" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="B236" s="4">
+        <v>106</v>
+      </c>
+      <c r="C236" s="4">
+        <v>106</v>
+      </c>
+      <c r="D236" s="4">
+        <v>106</v>
+      </c>
+      <c r="H236" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>137</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G237" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="B237" s="4">
+        <v>107</v>
+      </c>
+      <c r="C237" s="4">
+        <v>107</v>
+      </c>
+      <c r="D237" s="4">
+        <v>107</v>
+      </c>
+      <c r="H237" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>137</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G238" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="B238" s="4">
+        <v>108</v>
+      </c>
+      <c r="C238" s="4">
+        <v>108</v>
+      </c>
+      <c r="D238" s="4">
+        <v>108</v>
+      </c>
+      <c r="H238" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>137</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G239" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>60</v>
+      </c>
+      <c r="B239" s="4">
+        <v>109</v>
+      </c>
+      <c r="C239" s="4">
+        <v>109</v>
+      </c>
+      <c r="D239" s="4">
+        <v>109</v>
+      </c>
+      <c r="H239" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>137</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G240" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="B240" s="4">
+        <v>110</v>
+      </c>
+      <c r="C240" s="4">
+        <v>110</v>
+      </c>
+      <c r="D240" s="4">
+        <v>110</v>
+      </c>
+      <c r="H240" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>137</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G241" t="s">
-        <v>107</v>
+        <v>60</v>
+      </c>
+      <c r="B241" s="4">
+        <v>111</v>
+      </c>
+      <c r="C241" s="4">
+        <v>111</v>
+      </c>
+      <c r="D241" s="4">
+        <v>111</v>
+      </c>
+      <c r="H241" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" t="s">
+        <v>60</v>
+      </c>
+      <c r="B242" s="4">
+        <v>112</v>
+      </c>
+      <c r="C242" s="4">
+        <v>112</v>
+      </c>
+      <c r="D242" s="4">
+        <v>112</v>
+      </c>
+      <c r="H242" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B243" s="4">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C243" s="4">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D243" s="4">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="H243" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B244" s="4">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C244" s="4">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D244" s="4">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="H244" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B245" s="4">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C245" s="4">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D245" s="4">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="H245" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B246" s="4">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C246" s="4">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D246" s="4">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H246" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B247" s="4">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C247" s="4">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D247" s="4">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="H247" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B248" s="4">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C248" s="4">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D248" s="4">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H248" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B249" s="4">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C249" s="4">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D249" s="4">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H249" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B250" s="4">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C250" s="4">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D250" s="4">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H250" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B251" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C251" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D251" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H251" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B252" s="4">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C252" s="4">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D252" s="4">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="H252" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B253" s="4">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C253" s="4">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D253" s="4">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H253" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B254" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C254" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D254" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H254" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B255" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C255" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D255" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H255" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B256" s="4">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C256" s="4">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D256" s="4">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H256" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B257" s="4">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C257" s="4">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D257" s="4">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H257" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B258" s="4">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C258" s="4">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D258" s="4">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H258" t="s">
-        <v>150</v>
+        <v>293</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B259" s="4">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C259" s="4">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D259" s="4">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H259" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B260" s="4">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C260" s="4">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D260" s="4">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H260" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B261" s="4">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C261" s="4">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D261" s="4">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="H261" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B262" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C262" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D262" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H262" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B263" s="4">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C263" s="4">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D263" s="4">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H263" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B264" s="4">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C264" s="4">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D264" s="4">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H264" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B265" s="4">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C265" s="4">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D265" s="4">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H265" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B266" s="4">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C266" s="4">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D266" s="4">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H266" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B267" s="4">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C267" s="4">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D267" s="4">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H267" t="s">
-        <v>142</v>
+        <v>228</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B268" s="4">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C268" s="4">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D268" s="4">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H268" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B269" s="4">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C269" s="4">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D269" s="4">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H269" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B270" s="4">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C270" s="4">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D270" s="4">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H270" t="s">
-        <v>152</v>
+        <v>295</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B271" s="4">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C271" s="4">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D271" s="4">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H271" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B272" s="4">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C272" s="4">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D272" s="4">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H272" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B273" s="4">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C273" s="4">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D273" s="4">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H273" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B274" s="4">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C274" s="4">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D274" s="4">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H274" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B275" s="4">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C275" s="4">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D275" s="4">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="H275" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B276" s="4">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C276" s="4">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D276" s="4">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H276" t="s">
-        <v>176</v>
+        <v>297</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B277" s="4">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C277" s="4">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D277" s="4">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="H277" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B278" s="4">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C278" s="4">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D278" s="4">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="H278" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B279" s="4">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C279" s="4">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D279" s="4">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="H279" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B280" s="4">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C280" s="4">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D280" s="4">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H280" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B281" s="4">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C281" s="4">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D281" s="4">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="H281" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B282" s="4">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C282" s="4">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D282" s="4">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="H282" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B283" s="4">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C283" s="4">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D283" s="4">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="H283" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B284" s="4">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C284" s="4">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D284" s="4">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="H284" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B285" s="4">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C285" s="4">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D285" s="4">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="H285" t="s">
-        <v>236</v>
+        <v>152</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B286" s="4">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C286" s="4">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D286" s="4">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="H286" t="s">
-        <v>269</v>
+        <v>198</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B287" s="4">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C287" s="4">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D287" s="4">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H287" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B288" s="4">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C288" s="4">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D288" s="4">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="H288" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B289" s="4">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C289" s="4">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D289" s="4">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="H289" t="s">
-        <v>213</v>
+        <v>296</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B290" s="4">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C290" s="4">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D290" s="4">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="H290" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B291" s="4">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C291" s="4">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D291" s="4">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="H291" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B292" s="4">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C292" s="4">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D292" s="4">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H292" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B293" s="4">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C293" s="4">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D293" s="4">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="H293" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B294" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C294" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D294" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="H294" t="s">
-        <v>289</v>
+        <v>141</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B295" s="4">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C295" s="4">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D295" s="4">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="H295" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B296" s="4">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C296" s="4">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D296" s="4">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H296" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B297" s="4">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C297" s="4">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D297" s="4">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H297" t="s">
-        <v>140</v>
+        <v>264</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B298" s="4">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C298" s="4">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D298" s="4">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H298" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B299" s="4">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C299" s="4">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D299" s="4">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H299" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B300" s="4">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C300" s="4">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D300" s="4">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H300" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B301" s="4">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C301" s="4">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D301" s="4">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="H301" t="s">
-        <v>160</v>
+        <v>270</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B302" s="4">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C302" s="4">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D302" s="4">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H302" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B303" s="4">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C303" s="4">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D303" s="4">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="H303" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B304" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C304" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="D304" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H304" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B305" s="4">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C305" s="4">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D305" s="4">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H305" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B306" s="4">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C306" s="4">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D306" s="4">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H306" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B307" s="4">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C307" s="4">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D307" s="4">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H307" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B308" s="4">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C308" s="4">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D308" s="4">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="H308" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B309" s="4">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C309" s="4">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D309" s="4">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H309" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B310" s="4">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C310" s="4">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D310" s="4">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H310" t="s">
-        <v>266</v>
+        <v>143</v>
       </c>
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B311" s="4">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C311" s="4">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D311" s="4">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H311" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B312" s="4">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C312" s="4">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D312" s="4">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H312" t="s">
-        <v>215</v>
+        <v>136</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B313" s="4">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C313" s="4">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D313" s="4">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="H313" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B314" s="4">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C314" s="4">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D314" s="4">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="H314" t="s">
-        <v>146</v>
+        <v>219</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B315" s="4">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C315" s="4">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D315" s="4">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="H315" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B316" s="4">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C316" s="4">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D316" s="4">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="H316" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B317" s="4">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C317" s="4">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D317" s="4">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H317" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B318" s="4">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C318" s="4">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D318" s="4">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H318" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B319" s="4">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C319" s="4">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D319" s="4">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="H319" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B320" s="4">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C320" s="4">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D320" s="4">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="H320" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B321" s="4">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C321" s="4">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D321" s="4">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H321" t="s">
-        <v>303</v>
+        <v>148</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B322" s="4">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C322" s="4">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D322" s="4">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="H322" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="323" spans="1:8">
       <c r="A323" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B323" s="4">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C323" s="4">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D323" s="4">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="H323" t="s">
-        <v>180</v>
+        <v>302</v>
       </c>
     </row>
     <row r="324" spans="1:8">
       <c r="A324" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B324" s="4">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C324" s="4">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D324" s="4">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H324" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
     </row>
     <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B325" s="4">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C325" s="4">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D325" s="4">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="H325" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B326" s="4">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C326" s="4">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D326" s="4">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H326" t="s">
-        <v>167</v>
+        <v>267</v>
       </c>
     </row>
     <row r="327" spans="1:8">
       <c r="A327" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B327" s="4">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C327" s="4">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D327" s="4">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H327" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
     </row>
     <row r="328" spans="1:8">
       <c r="A328" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B328" s="4">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C328" s="4">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D328" s="4">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="H328" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="329" spans="1:8">
       <c r="A329" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B329" s="4">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C329" s="4">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D329" s="4">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H329" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B330" s="4">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C330" s="4">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D330" s="4">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="H330" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="331" spans="1:8">
       <c r="A331" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B331" s="4">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C331" s="4">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D331" s="4">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H331" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B332" s="4">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C332" s="4">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D332" s="4">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="H332" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="A333" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B333" s="4">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C333" s="4">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D333" s="4">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="H333" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="334" spans="1:8">
       <c r="A334" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B334" s="4">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C334" s="4">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D334" s="4">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="H334" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
     </row>
     <row r="335" spans="1:8">
       <c r="A335" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B335" s="4">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C335" s="4">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D335" s="4">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H335" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
     </row>
     <row r="336" spans="1:8">
       <c r="A336" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B336" s="4">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C336" s="4">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D336" s="4">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H336" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
     </row>
     <row r="337" spans="1:8">
       <c r="A337" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B337" s="4">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C337" s="4">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D337" s="4">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="H337" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="338" spans="1:8">
       <c r="A338" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B338" s="4">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C338" s="4">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D338" s="4">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="H338" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
     </row>
     <row r="339" spans="1:8">
       <c r="A339" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B339" s="4">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C339" s="4">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D339" s="4">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H339" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
     </row>
     <row r="340" spans="1:8">
       <c r="A340" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B340" s="4">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C340" s="4">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D340" s="4">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H340" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="341" spans="1:8">
       <c r="A341" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B341" s="4">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C341" s="4">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D341" s="4">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H341" t="s">
-        <v>155</v>
+        <v>271</v>
       </c>
     </row>
     <row r="342" spans="1:8">
       <c r="A342" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B342" s="4">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C342" s="4">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D342" s="4">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H342" t="s">
-        <v>304</v>
+        <v>155</v>
       </c>
     </row>
     <row r="343" spans="1:8">
       <c r="A343" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B343" s="4">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C343" s="4">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D343" s="4">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="H343" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
     </row>
     <row r="344" spans="1:8">
       <c r="A344" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B344" s="4">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C344" s="4">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D344" s="4">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H344" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
     </row>
     <row r="345" spans="1:8">
       <c r="A345" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B345" s="4">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C345" s="4">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D345" s="4">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H345" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
     </row>
     <row r="346" spans="1:8">
       <c r="A346" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B346" s="4">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C346" s="4">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D346" s="4">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="H346" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="347" spans="1:8">
       <c r="A347" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B347" s="4">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C347" s="4">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D347" s="4">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="H347" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
     </row>
     <row r="348" spans="1:8">
       <c r="A348" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B348" s="4">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C348" s="4">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D348" s="4">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="H348" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
     </row>
     <row r="349" spans="1:8">
       <c r="A349" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B349" s="4">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C349" s="4">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D349" s="4">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="H349" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="350" spans="1:8">
       <c r="A350" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B350" s="4">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C350" s="4">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D350" s="4">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H350" t="s">
-        <v>283</v>
+        <v>162</v>
       </c>
     </row>
     <row r="351" spans="1:8">
       <c r="A351" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B351" s="4">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C351" s="4">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D351" s="4">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="H351" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
     </row>
     <row r="352" spans="1:8">
       <c r="A352" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B352" s="4">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C352" s="4">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D352" s="4">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="H352" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
     </row>
     <row r="353" spans="1:8">
       <c r="A353" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B353" s="4">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C353" s="4">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D353" s="4">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H353" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
     </row>
     <row r="354" spans="1:8">
       <c r="A354" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B354" s="4">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C354" s="4">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D354" s="4">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H354" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
     </row>
     <row r="355" spans="1:8">
       <c r="A355" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B355" s="4">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C355" s="4">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D355" s="4">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H355" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="356" spans="1:8">
       <c r="A356" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B356" s="4">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C356" s="4">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D356" s="4">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H356" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="357" spans="1:8">
       <c r="A357" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B357" s="4">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C357" s="4">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D357" s="4">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="H357" t="s">
-        <v>273</v>
+        <v>164</v>
       </c>
     </row>
     <row r="358" spans="1:8">
       <c r="A358" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B358" s="4">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C358" s="4">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D358" s="4">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H358" t="s">
-        <v>294</v>
+        <v>165</v>
       </c>
     </row>
     <row r="359" spans="1:8">
       <c r="A359" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B359" s="4">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C359" s="4">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D359" s="4">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H359" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="360" spans="1:8">
       <c r="A360" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B360" s="4">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C360" s="4">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D360" s="4">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="H360" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
     </row>
     <row r="361" spans="1:8">
       <c r="A361" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B361" s="4">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C361" s="4">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D361" s="4">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H361" t="s">
-        <v>271</v>
+        <v>144</v>
       </c>
     </row>
     <row r="362" spans="1:8">
       <c r="A362" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B362" s="4">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="C362" s="4">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D362" s="4">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H362" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
     </row>
     <row r="363" spans="1:8">
       <c r="A363" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B363" s="4">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C363" s="4">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D363" s="4">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H363" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
     </row>
     <row r="364" spans="1:8">
       <c r="A364" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B364" s="4">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C364" s="4">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="D364" s="4">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H364" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="365" spans="1:8">
       <c r="A365" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B365" s="4">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C365" s="4">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D365" s="4">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H365" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="366" spans="1:8">
       <c r="A366" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B366" s="4">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C366" s="4">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D366" s="4">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H366" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="367" spans="1:8">
       <c r="A367" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B367" s="4">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C367" s="4">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D367" s="4">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="H367" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="368" spans="1:8">
       <c r="A368" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B368" s="4">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C368" s="4">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D368" s="4">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="H368" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
     </row>
     <row r="369" spans="1:8">
       <c r="A369" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B369" s="4">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C369" s="4">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D369" s="4">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H369" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="370" spans="1:8">
       <c r="A370" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B370" s="4">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C370" s="4">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D370" s="4">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="H370" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="371" spans="1:8">
       <c r="A371" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B371" s="4">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C371" s="4">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D371" s="4">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="H371" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="372" spans="1:8">
       <c r="A372" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B372" s="4">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C372" s="4">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D372" s="4">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="H372" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="A373" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B373" s="4">
+        <v>243</v>
+      </c>
+      <c r="C373" s="4">
+        <v>243</v>
+      </c>
+      <c r="D373" s="4">
+        <v>243</v>
+      </c>
+      <c r="H373" t="s">
         <v>231</v>
-      </c>
-      <c r="C373" s="4">
-        <v>231</v>
-      </c>
-      <c r="D373" s="4">
-        <v>231</v>
-      </c>
-      <c r="H373" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="374" spans="1:8">
       <c r="A374" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B374" s="4">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C374" s="4">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D374" s="4">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H374" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="375" spans="1:8">
       <c r="A375" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B375" s="4">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C375" s="4">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D375" s="4">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H375" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
     </row>
     <row r="376" spans="1:8">
       <c r="A376" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B376" s="4">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C376" s="4">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D376" s="4">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H376" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
     </row>
     <row r="377" spans="1:8">
       <c r="A377" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B377" s="4">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C377" s="4">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D377" s="4">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="H377" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
     </row>
     <row r="378" spans="1:8">
       <c r="A378" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B378" s="4">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C378" s="4">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D378" s="4">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="H378" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="379" spans="1:8">
       <c r="A379" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B379" s="4">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C379" s="4">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D379" s="4">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="H379" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
     </row>
     <row r="380" spans="1:8">
       <c r="A380" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B380" s="4">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="C380" s="4">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D380" s="4">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="H380" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B381" s="4">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C381" s="4">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D381" s="4">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="H381" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
     </row>
     <row r="382" spans="1:8">
       <c r="A382" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B382" s="4">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C382" s="4">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D382" s="4">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H382" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
     </row>
     <row r="383" spans="1:8">
       <c r="A383" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B383" s="4">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="C383" s="4">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D383" s="4">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="H383" t="s">
-        <v>302</v>
+        <v>221</v>
       </c>
     </row>
     <row r="384" spans="1:8">
       <c r="A384" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B384" s="4">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="C384" s="4">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D384" s="4">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="H384" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="385" spans="1:8">
       <c r="A385" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B385" s="4">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C385" s="4">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D385" s="4">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="H385" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="386" spans="1:8">
       <c r="A386" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B386" s="4">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C386" s="4">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D386" s="4">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="H386" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="387" spans="1:8">
       <c r="A387" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B387" s="4">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C387" s="4">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D387" s="4">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="H387" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
-      <c r="A388" t="s">
-        <v>62</v>
-      </c>
-      <c r="B388" s="4">
-        <v>246</v>
-      </c>
-      <c r="C388" s="4">
-        <v>246</v>
-      </c>
-      <c r="D388" s="4">
-        <v>246</v>
-      </c>
-      <c r="H388" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
-      <c r="A389" t="s">
-        <v>62</v>
-      </c>
-      <c r="B389" s="4">
-        <v>247</v>
-      </c>
-      <c r="C389" s="4">
-        <v>247</v>
-      </c>
-      <c r="D389" s="4">
-        <v>247</v>
-      </c>
-      <c r="H389" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8">
-      <c r="A390" t="s">
-        <v>62</v>
-      </c>
-      <c r="B390" s="4">
-        <v>248</v>
-      </c>
-      <c r="C390" s="4">
-        <v>248</v>
-      </c>
-      <c r="D390" s="4">
-        <v>248</v>
-      </c>
-      <c r="H390" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
-      <c r="A391" t="s">
-        <v>62</v>
-      </c>
-      <c r="B391" s="4">
-        <v>249</v>
-      </c>
-      <c r="C391" s="4">
-        <v>249</v>
-      </c>
-      <c r="D391" s="4">
-        <v>249</v>
-      </c>
-      <c r="H391" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
-      <c r="A392" t="s">
-        <v>62</v>
-      </c>
-      <c r="B392" s="4">
-        <v>250</v>
-      </c>
-      <c r="C392" s="4">
-        <v>250</v>
-      </c>
-      <c r="D392" s="4">
-        <v>250</v>
-      </c>
-      <c r="H392" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8">
-      <c r="A393" t="s">
-        <v>62</v>
-      </c>
-      <c r="B393" s="4">
-        <v>251</v>
-      </c>
-      <c r="C393" s="4">
-        <v>251</v>
-      </c>
-      <c r="D393" s="4">
-        <v>251</v>
-      </c>
-      <c r="H393" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
-      <c r="A394" t="s">
-        <v>62</v>
-      </c>
-      <c r="B394" s="4">
-        <v>252</v>
-      </c>
-      <c r="C394" s="4">
-        <v>252</v>
-      </c>
-      <c r="D394" s="4">
-        <v>252</v>
-      </c>
-      <c r="H394" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8">
-      <c r="A395" t="s">
-        <v>62</v>
-      </c>
-      <c r="B395" s="4">
-        <v>253</v>
-      </c>
-      <c r="C395" s="4">
-        <v>253</v>
-      </c>
-      <c r="D395" s="4">
-        <v>253</v>
-      </c>
-      <c r="H395" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8">
-      <c r="A396" t="s">
-        <v>62</v>
-      </c>
-      <c r="B396" s="4">
-        <v>254</v>
-      </c>
-      <c r="C396" s="4">
-        <v>254</v>
-      </c>
-      <c r="D396" s="4">
-        <v>254</v>
-      </c>
-      <c r="H396" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
-      <c r="A397" t="s">
-        <v>62</v>
-      </c>
-      <c r="B397" s="4">
-        <v>255</v>
-      </c>
-      <c r="C397" s="4">
-        <v>255</v>
-      </c>
-      <c r="D397" s="4">
-        <v>255</v>
-      </c>
-      <c r="H397" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
-      <c r="A398" t="s">
-        <v>62</v>
-      </c>
-      <c r="B398" s="4">
-        <v>256</v>
-      </c>
-      <c r="C398" s="4">
-        <v>256</v>
-      </c>
-      <c r="D398" s="4">
-        <v>256</v>
-      </c>
-      <c r="H398" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8">
-      <c r="A399" t="s">
-        <v>62</v>
-      </c>
-      <c r="B399" s="4">
-        <v>257</v>
-      </c>
-      <c r="C399" s="4">
-        <v>257</v>
-      </c>
-      <c r="D399" s="4">
-        <v>257</v>
-      </c>
-      <c r="H399" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
-      <c r="A400" t="s">
-        <v>62</v>
-      </c>
-      <c r="B400" s="4">
-        <v>258</v>
-      </c>
-      <c r="C400" s="4">
-        <v>258</v>
-      </c>
-      <c r="D400" s="4">
-        <v>258</v>
-      </c>
-      <c r="H400" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
-      <c r="A401" t="s">
-        <v>62</v>
-      </c>
-      <c r="B401" s="4">
-        <v>259</v>
-      </c>
-      <c r="C401" s="4">
-        <v>259</v>
-      </c>
-      <c r="D401" s="4">
-        <v>259</v>
-      </c>
-      <c r="H401" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8">
-      <c r="A402" t="s">
-        <v>62</v>
-      </c>
-      <c r="B402" s="4">
-        <v>260</v>
-      </c>
-      <c r="C402" s="4">
-        <v>260</v>
-      </c>
-      <c r="D402" s="4">
-        <v>260</v>
-      </c>
-      <c r="H402" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
-      <c r="A403" t="s">
-        <v>62</v>
-      </c>
-      <c r="B403" s="4">
-        <v>261</v>
-      </c>
-      <c r="C403" s="4">
-        <v>261</v>
-      </c>
-      <c r="D403" s="4">
-        <v>261</v>
-      </c>
-      <c r="H403" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8">
-      <c r="A404" t="s">
-        <v>62</v>
-      </c>
-      <c r="B404" s="4">
-        <v>262</v>
-      </c>
-      <c r="C404" s="4">
-        <v>262</v>
-      </c>
-      <c r="D404" s="4">
-        <v>262</v>
-      </c>
-      <c r="H404" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
-      <c r="A405" t="s">
-        <v>62</v>
-      </c>
-      <c r="B405" s="4">
-        <v>263</v>
-      </c>
-      <c r="C405" s="4">
-        <v>263</v>
-      </c>
-      <c r="D405" s="4">
-        <v>263</v>
-      </c>
-      <c r="H405" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
-      <c r="A406" t="s">
-        <v>62</v>
-      </c>
-      <c r="B406" s="4">
-        <v>264</v>
-      </c>
-      <c r="C406" s="4">
-        <v>264</v>
-      </c>
-      <c r="D406" s="4">
-        <v>264</v>
-      </c>
-      <c r="H406" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8">
-      <c r="A407" t="s">
-        <v>62</v>
-      </c>
-      <c r="B407" s="4">
-        <v>265</v>
-      </c>
-      <c r="C407" s="4">
-        <v>265</v>
-      </c>
-      <c r="D407" s="4">
-        <v>265</v>
-      </c>
-      <c r="H407" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8">
-      <c r="A408" t="s">
-        <v>62</v>
-      </c>
-      <c r="B408" s="4">
-        <v>266</v>
-      </c>
-      <c r="C408" s="4">
-        <v>266</v>
-      </c>
-      <c r="D408" s="4">
-        <v>266</v>
-      </c>
-      <c r="H408" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -8982,24 +8602,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
